--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Unc5b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H2">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.905221</v>
+        <v>9.777115666666667</v>
       </c>
       <c r="N2">
-        <v>38.715663</v>
+        <v>29.331347</v>
       </c>
       <c r="O2">
-        <v>0.5346585373998117</v>
+        <v>0.4550401142956147</v>
       </c>
       <c r="P2">
-        <v>0.5346585373998116</v>
+        <v>0.4550401142956148</v>
       </c>
       <c r="Q2">
-        <v>28.84151706671199</v>
+        <v>14.90756260063189</v>
       </c>
       <c r="R2">
-        <v>259.573653600408</v>
+        <v>134.168063405687</v>
       </c>
       <c r="S2">
-        <v>0.1346903029993369</v>
+        <v>0.09384009667133739</v>
       </c>
       <c r="T2">
-        <v>0.1346903029993369</v>
+        <v>0.09384009667133743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H3">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>28.929886</v>
       </c>
       <c r="O3">
-        <v>0.3995181623495197</v>
+        <v>0.4488119359809525</v>
       </c>
       <c r="P3">
-        <v>0.3995181623495196</v>
+        <v>0.4488119359809526</v>
       </c>
       <c r="Q3">
-        <v>21.55153072819733</v>
+        <v>14.70352134097844</v>
       </c>
       <c r="R3">
-        <v>193.963776553776</v>
+        <v>132.331692068806</v>
       </c>
       <c r="S3">
-        <v>0.1006459610694585</v>
+        <v>0.09255569813860817</v>
       </c>
       <c r="T3">
-        <v>0.1006459610694585</v>
+        <v>0.0925556981386082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H4">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.519403</v>
+        <v>0.1167566666666667</v>
       </c>
       <c r="N4">
-        <v>4.558209000000001</v>
+        <v>0.35027</v>
       </c>
       <c r="O4">
-        <v>0.06294830485281007</v>
+        <v>0.005434012315708684</v>
       </c>
       <c r="P4">
-        <v>0.06294830485281006</v>
+        <v>0.005434012315708685</v>
       </c>
       <c r="Q4">
-        <v>3.395671221416</v>
+        <v>0.1780235988522222</v>
       </c>
       <c r="R4">
-        <v>30.561040992744</v>
+        <v>1.60221238967</v>
       </c>
       <c r="S4">
-        <v>0.01585783385252384</v>
+        <v>0.001120622611060766</v>
       </c>
       <c r="T4">
-        <v>0.01585783385252384</v>
+        <v>0.001120622611060766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H5">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I5">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J5">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06939466666666667</v>
+        <v>1.831323666666667</v>
       </c>
       <c r="N5">
-        <v>0.208184</v>
+        <v>5.493971</v>
       </c>
       <c r="O5">
-        <v>0.002874995397858547</v>
+        <v>0.08523226675463601</v>
       </c>
       <c r="P5">
-        <v>0.002874995397858547</v>
+        <v>0.08523226675463602</v>
       </c>
       <c r="Q5">
-        <v>0.1550881974826667</v>
+        <v>2.792293057954555</v>
       </c>
       <c r="R5">
-        <v>1.395793777344</v>
+        <v>25.130637521591</v>
       </c>
       <c r="S5">
-        <v>0.000724264131538028</v>
+        <v>0.01757692102410176</v>
       </c>
       <c r="T5">
-        <v>0.000724264131538028</v>
+        <v>0.01757692102410177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.185577</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H6">
-        <v>9.556730999999999</v>
+        <v>4.574221</v>
       </c>
       <c r="I6">
-        <v>0.3590833569140672</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J6">
-        <v>0.3590833569140671</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>12.905221</v>
+        <v>0.1177806666666667</v>
       </c>
       <c r="N6">
-        <v>38.715663</v>
+        <v>0.353342</v>
       </c>
       <c r="O6">
-        <v>0.5346585373998117</v>
+        <v>0.005481670653088011</v>
       </c>
       <c r="P6">
-        <v>0.5346585373998116</v>
+        <v>0.005481670653088012</v>
       </c>
       <c r="Q6">
-        <v>41.11057519751699</v>
+        <v>0.1795849329535555</v>
       </c>
       <c r="R6">
-        <v>369.9951767776529</v>
+        <v>1.616264396582</v>
       </c>
       <c r="S6">
-        <v>0.1919869824122898</v>
+        <v>0.001130450893988731</v>
       </c>
       <c r="T6">
-        <v>0.1919869824122896</v>
+        <v>0.001130450893988732</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,10 +856,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I7">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J7">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.643295333333334</v>
+        <v>9.777115666666667</v>
       </c>
       <c r="N7">
-        <v>28.929886</v>
+        <v>29.331347</v>
       </c>
       <c r="O7">
-        <v>0.3995181623495197</v>
+        <v>0.4550401142956147</v>
       </c>
       <c r="P7">
-        <v>0.3995181623495196</v>
+        <v>0.4550401142956148</v>
       </c>
       <c r="Q7">
-        <v>30.719459818074</v>
+        <v>31.145754794073</v>
       </c>
       <c r="R7">
-        <v>276.475138362666</v>
+        <v>280.311793146657</v>
       </c>
       <c r="S7">
-        <v>0.1434603228846048</v>
+        <v>0.196056237969693</v>
       </c>
       <c r="T7">
-        <v>0.1434603228846048</v>
+        <v>0.196056237969693</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I8">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J8">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.519403</v>
+        <v>9.643295333333334</v>
       </c>
       <c r="N8">
-        <v>4.558209000000001</v>
+        <v>28.929886</v>
       </c>
       <c r="O8">
-        <v>0.06294830485281007</v>
+        <v>0.4488119359809525</v>
       </c>
       <c r="P8">
-        <v>0.06294830485281006</v>
+        <v>0.4488119359809526</v>
       </c>
       <c r="Q8">
-        <v>4.840175250531001</v>
+        <v>30.719459818074</v>
       </c>
       <c r="R8">
-        <v>43.561577254779</v>
+        <v>276.475138362666</v>
       </c>
       <c r="S8">
-        <v>0.02260368861859711</v>
+        <v>0.1933727971665293</v>
       </c>
       <c r="T8">
-        <v>0.0226036886185971</v>
+        <v>0.1933727971665294</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I9">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J9">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06939466666666667</v>
+        <v>0.1167566666666667</v>
       </c>
       <c r="N9">
-        <v>0.208184</v>
+        <v>0.35027</v>
       </c>
       <c r="O9">
-        <v>0.002874995397858547</v>
+        <v>0.005434012315708684</v>
       </c>
       <c r="P9">
-        <v>0.002874995397858547</v>
+        <v>0.005434012315708685</v>
       </c>
       <c r="Q9">
-        <v>0.221062054056</v>
+        <v>0.37193735193</v>
       </c>
       <c r="R9">
-        <v>1.989558486504</v>
+        <v>3.34743616737</v>
       </c>
       <c r="S9">
-        <v>0.001032362998575541</v>
+        <v>0.002341270534682378</v>
       </c>
       <c r="T9">
-        <v>0.001032362998575541</v>
+        <v>0.002341270534682379</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3858173333333333</v>
+        <v>3.185577</v>
       </c>
       <c r="H10">
-        <v>1.157452</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I10">
-        <v>0.04348994961006027</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J10">
-        <v>0.04348994961006027</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.905221</v>
+        <v>1.831323666666667</v>
       </c>
       <c r="N10">
-        <v>38.715663</v>
+        <v>5.493971</v>
       </c>
       <c r="O10">
-        <v>0.5346585373998117</v>
+        <v>0.08523226675463601</v>
       </c>
       <c r="P10">
-        <v>0.5346585373998116</v>
+        <v>0.08523226675463602</v>
       </c>
       <c r="Q10">
-        <v>4.979057952297333</v>
+        <v>5.833822552089</v>
       </c>
       <c r="R10">
-        <v>44.811521570676</v>
+        <v>52.504402968801</v>
       </c>
       <c r="S10">
-        <v>0.02325227285010633</v>
+        <v>0.03672273509207034</v>
       </c>
       <c r="T10">
-        <v>0.02325227285010633</v>
+        <v>0.03672273509207035</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.185577</v>
+      </c>
+      <c r="H11">
+        <v>9.556730999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.4308548451232278</v>
+      </c>
+      <c r="J11">
+        <v>0.4308548451232279</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
+      <c r="L11">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G11">
-        <v>0.3858173333333333</v>
-      </c>
-      <c r="H11">
-        <v>1.157452</v>
-      </c>
-      <c r="I11">
-        <v>0.04348994961006027</v>
-      </c>
-      <c r="J11">
-        <v>0.04348994961006027</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>9.643295333333334</v>
+        <v>0.1177806666666667</v>
       </c>
       <c r="N11">
-        <v>28.929886</v>
+        <v>0.353342</v>
       </c>
       <c r="O11">
-        <v>0.3995181623495197</v>
+        <v>0.005481670653088011</v>
       </c>
       <c r="P11">
-        <v>0.3995181623495196</v>
+        <v>0.005481670653088012</v>
       </c>
       <c r="Q11">
-        <v>3.720550490052445</v>
+        <v>0.375199382778</v>
       </c>
       <c r="R11">
-        <v>33.484954410472</v>
+        <v>3.376794445002</v>
       </c>
       <c r="S11">
-        <v>0.01737502474888449</v>
+        <v>0.002361804360252778</v>
       </c>
       <c r="T11">
-        <v>0.01737502474888449</v>
+        <v>0.002361804360252779</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H12">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I12">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J12">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.519403</v>
+        <v>9.777115666666667</v>
       </c>
       <c r="N12">
-        <v>4.558209000000001</v>
+        <v>29.331347</v>
       </c>
       <c r="O12">
-        <v>0.06294830485281007</v>
+        <v>0.4550401142956147</v>
       </c>
       <c r="P12">
-        <v>0.06294830485281006</v>
+        <v>0.4550401142956148</v>
       </c>
       <c r="Q12">
-        <v>0.5862120137186667</v>
+        <v>1.987488813681445</v>
       </c>
       <c r="R12">
-        <v>5.275908123468001</v>
+        <v>17.887399323133</v>
       </c>
       <c r="S12">
-        <v>0.002737618606087422</v>
+        <v>0.01251084079976716</v>
       </c>
       <c r="T12">
-        <v>0.002737618606087421</v>
+        <v>0.01251084079976716</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,25 +1213,25 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H13">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I13">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J13">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.06939466666666667</v>
+        <v>9.643295333333334</v>
       </c>
       <c r="N13">
-        <v>0.208184</v>
+        <v>28.929886</v>
       </c>
       <c r="O13">
-        <v>0.002874995397858547</v>
+        <v>0.4488119359809525</v>
       </c>
       <c r="P13">
-        <v>0.002874995397858547</v>
+        <v>0.4488119359809526</v>
       </c>
       <c r="Q13">
-        <v>0.02677366524088889</v>
+        <v>1.960285860928222</v>
       </c>
       <c r="R13">
-        <v>0.240962987168</v>
+        <v>17.642572748354</v>
       </c>
       <c r="S13">
-        <v>0.0001250334049820234</v>
+        <v>0.01233960370457629</v>
       </c>
       <c r="T13">
-        <v>0.0001250334049820234</v>
+        <v>0.0123396037045763</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.766917</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H14">
-        <v>8.300751</v>
+        <v>0.609839</v>
       </c>
       <c r="I14">
-        <v>0.3118913291571982</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J14">
-        <v>0.3118913291571982</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,60 +1302,60 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.905221</v>
+        <v>0.1167566666666667</v>
       </c>
       <c r="N14">
-        <v>38.715663</v>
+        <v>0.35027</v>
       </c>
       <c r="O14">
-        <v>0.5346585373998117</v>
+        <v>0.005434012315708684</v>
       </c>
       <c r="P14">
-        <v>0.5346585373998116</v>
+        <v>0.005434012315708685</v>
       </c>
       <c r="Q14">
-        <v>35.707675373657</v>
+        <v>0.02373425628111111</v>
       </c>
       <c r="R14">
-        <v>321.369078362913</v>
+        <v>0.21360830653</v>
       </c>
       <c r="S14">
-        <v>0.1667553618748709</v>
+        <v>0.0001494023512433453</v>
       </c>
       <c r="T14">
-        <v>0.1667553618748708</v>
+        <v>0.0001494023512433454</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.766917</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H15">
-        <v>8.300751</v>
+        <v>0.609839</v>
       </c>
       <c r="I15">
-        <v>0.3118913291571982</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J15">
-        <v>0.3118913291571982</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.643295333333334</v>
+        <v>1.831323666666667</v>
       </c>
       <c r="N15">
-        <v>28.929886</v>
+        <v>5.493971</v>
       </c>
       <c r="O15">
-        <v>0.3995181623495197</v>
+        <v>0.08523226675463601</v>
       </c>
       <c r="P15">
-        <v>0.3995181623495196</v>
+        <v>0.08523226675463602</v>
       </c>
       <c r="Q15">
-        <v>26.68219779382067</v>
+        <v>0.3722708645187778</v>
       </c>
       <c r="R15">
-        <v>240.139780144386</v>
+        <v>3.350437780669</v>
       </c>
       <c r="S15">
-        <v>0.124606250677633</v>
+        <v>0.002343369929091138</v>
       </c>
       <c r="T15">
-        <v>0.124606250677633</v>
+        <v>0.002343369929091139</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.766917</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H16">
-        <v>8.300751</v>
+        <v>0.609839</v>
       </c>
       <c r="I16">
-        <v>0.3118913291571982</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J16">
-        <v>0.3118913291571982</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.519403</v>
+        <v>0.1177806666666667</v>
       </c>
       <c r="N16">
-        <v>4.558209000000001</v>
+        <v>0.353342</v>
       </c>
       <c r="O16">
-        <v>0.06294830485281007</v>
+        <v>0.005481670653088011</v>
       </c>
       <c r="P16">
-        <v>0.06294830485281006</v>
+        <v>0.005481670653088012</v>
       </c>
       <c r="Q16">
-        <v>4.204061990551001</v>
+        <v>0.02394241465977778</v>
       </c>
       <c r="R16">
-        <v>37.836557914959</v>
+        <v>0.215481731938</v>
       </c>
       <c r="S16">
-        <v>0.01963303046873545</v>
+        <v>0.0001507126662089991</v>
       </c>
       <c r="T16">
-        <v>0.01963303046873544</v>
+        <v>0.0001507126662089992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H17">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I17">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J17">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.06939466666666667</v>
+        <v>9.777115666666667</v>
       </c>
       <c r="N17">
-        <v>0.208184</v>
+        <v>29.331347</v>
       </c>
       <c r="O17">
-        <v>0.002874995397858547</v>
+        <v>0.4550401142956147</v>
       </c>
       <c r="P17">
-        <v>0.002874995397858547</v>
+        <v>0.4550401142956148</v>
       </c>
       <c r="Q17">
-        <v>0.1920092829093333</v>
+        <v>20.15271465559844</v>
       </c>
       <c r="R17">
-        <v>1.728083546184</v>
+        <v>181.374431900386</v>
       </c>
       <c r="S17">
-        <v>0.0008966861359589301</v>
+        <v>0.1268572698390732</v>
       </c>
       <c r="T17">
-        <v>0.00089668613595893</v>
+        <v>0.1268572698390733</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2982303333333333</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H18">
-        <v>0.894691</v>
+        <v>6.183638</v>
       </c>
       <c r="I18">
-        <v>0.03361700226581701</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J18">
-        <v>0.03361700226581701</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.905221</v>
+        <v>9.643295333333334</v>
       </c>
       <c r="N18">
-        <v>38.715663</v>
+        <v>28.929886</v>
       </c>
       <c r="O18">
-        <v>0.5346585373998117</v>
+        <v>0.4488119359809525</v>
       </c>
       <c r="P18">
-        <v>0.5346585373998116</v>
+        <v>0.4488119359809526</v>
       </c>
       <c r="Q18">
-        <v>3.848728360570333</v>
+        <v>19.87688248947422</v>
       </c>
       <c r="R18">
-        <v>34.638555245133</v>
+        <v>178.891942405268</v>
       </c>
       <c r="S18">
-        <v>0.01797361726320788</v>
+        <v>0.1251209620449967</v>
       </c>
       <c r="T18">
-        <v>0.01797361726320788</v>
+        <v>0.1251209620449967</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2982303333333333</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H19">
-        <v>0.894691</v>
+        <v>6.183638</v>
       </c>
       <c r="I19">
-        <v>0.03361700226581701</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J19">
-        <v>0.03361700226581701</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>9.643295333333334</v>
+        <v>0.1167566666666667</v>
       </c>
       <c r="N19">
-        <v>28.929886</v>
+        <v>0.35027</v>
       </c>
       <c r="O19">
-        <v>0.3995181623495197</v>
+        <v>0.005434012315708684</v>
       </c>
       <c r="P19">
-        <v>0.3995181623495196</v>
+        <v>0.005434012315708685</v>
       </c>
       <c r="Q19">
-        <v>2.875923181691778</v>
+        <v>0.2406603202511111</v>
       </c>
       <c r="R19">
-        <v>25.883308635226</v>
+        <v>2.16594288226</v>
       </c>
       <c r="S19">
-        <v>0.01343060296893885</v>
+        <v>0.00151490812564906</v>
       </c>
       <c r="T19">
-        <v>0.01343060296893885</v>
+        <v>0.001514908125649061</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2982303333333333</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H20">
-        <v>0.894691</v>
+        <v>6.183638</v>
       </c>
       <c r="I20">
-        <v>0.03361700226581701</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J20">
-        <v>0.03361700226581701</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.519403</v>
+        <v>1.831323666666667</v>
       </c>
       <c r="N20">
-        <v>4.558209000000001</v>
+        <v>5.493971</v>
       </c>
       <c r="O20">
-        <v>0.06294830485281007</v>
+        <v>0.08523226675463601</v>
       </c>
       <c r="P20">
-        <v>0.06294830485281006</v>
+        <v>0.08523226675463602</v>
       </c>
       <c r="Q20">
-        <v>0.4531320631576667</v>
+        <v>3.774747538499778</v>
       </c>
       <c r="R20">
-        <v>4.078188568419001</v>
+        <v>33.972727846498</v>
       </c>
       <c r="S20">
-        <v>0.002116133306866256</v>
+        <v>0.02376127361743881</v>
       </c>
       <c r="T20">
-        <v>0.002116133306866256</v>
+        <v>0.02376127361743883</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>2.061212666666667</v>
+      </c>
+      <c r="H21">
+        <v>6.183638</v>
+      </c>
+      <c r="I21">
+        <v>0.2787826080683977</v>
+      </c>
+      <c r="J21">
+        <v>0.2787826080683978</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="L21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G21">
-        <v>0.2982303333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.894691</v>
-      </c>
-      <c r="I21">
-        <v>0.03361700226581701</v>
-      </c>
-      <c r="J21">
-        <v>0.03361700226581701</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
       <c r="M21">
-        <v>0.06939466666666667</v>
+        <v>0.1177806666666667</v>
       </c>
       <c r="N21">
-        <v>0.208184</v>
+        <v>0.353342</v>
       </c>
       <c r="O21">
-        <v>0.002874995397858547</v>
+        <v>0.005481670653088011</v>
       </c>
       <c r="P21">
-        <v>0.002874995397858547</v>
+        <v>0.005481670653088012</v>
       </c>
       <c r="Q21">
-        <v>0.02069559457155556</v>
+        <v>0.2427710020217778</v>
       </c>
       <c r="R21">
-        <v>0.186260351144</v>
+        <v>2.184939018196</v>
       </c>
       <c r="S21">
-        <v>9.664872680402426E-05</v>
+        <v>0.001528194441239872</v>
       </c>
       <c r="T21">
-        <v>9.664872680402426E-05</v>
+        <v>0.001528194441239873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.4188103333333333</v>
+      </c>
+      <c r="H22">
+        <v>1.256431</v>
+      </c>
+      <c r="I22">
+        <v>0.05664482801839063</v>
+      </c>
+      <c r="J22">
+        <v>0.05664482801839064</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>9.777115666666667</v>
+      </c>
+      <c r="N22">
+        <v>29.331347</v>
+      </c>
+      <c r="O22">
+        <v>0.4550401142956147</v>
+      </c>
+      <c r="P22">
+        <v>0.4550401142956148</v>
+      </c>
+      <c r="Q22">
+        <v>4.094757071395223</v>
+      </c>
+      <c r="R22">
+        <v>36.852813642557</v>
+      </c>
+      <c r="S22">
+        <v>0.02577566901574391</v>
+      </c>
+      <c r="T22">
+        <v>0.02577566901574392</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.4188103333333333</v>
+      </c>
+      <c r="H23">
+        <v>1.256431</v>
+      </c>
+      <c r="I23">
+        <v>0.05664482801839063</v>
+      </c>
+      <c r="J23">
+        <v>0.05664482801839064</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.643295333333334</v>
+      </c>
+      <c r="N23">
+        <v>28.929886</v>
+      </c>
+      <c r="O23">
+        <v>0.4488119359809525</v>
+      </c>
+      <c r="P23">
+        <v>0.4488119359809526</v>
+      </c>
+      <c r="Q23">
+        <v>4.038711732985112</v>
+      </c>
+      <c r="R23">
+        <v>36.34840559686601</v>
+      </c>
+      <c r="S23">
+        <v>0.025422874926242</v>
+      </c>
+      <c r="T23">
+        <v>0.02542287492624201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.4188103333333333</v>
+      </c>
+      <c r="H24">
+        <v>1.256431</v>
+      </c>
+      <c r="I24">
+        <v>0.05664482801839063</v>
+      </c>
+      <c r="J24">
+        <v>0.05664482801839064</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.1167566666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.35027</v>
+      </c>
+      <c r="O24">
+        <v>0.005434012315708684</v>
+      </c>
+      <c r="P24">
+        <v>0.005434012315708685</v>
+      </c>
+      <c r="Q24">
+        <v>0.04889889848555556</v>
+      </c>
+      <c r="R24">
+        <v>0.4400900863700001</v>
+      </c>
+      <c r="S24">
+        <v>0.000307808693073135</v>
+      </c>
+      <c r="T24">
+        <v>0.0003078086930731351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.4188103333333333</v>
+      </c>
+      <c r="H25">
+        <v>1.256431</v>
+      </c>
+      <c r="I25">
+        <v>0.05664482801839063</v>
+      </c>
+      <c r="J25">
+        <v>0.05664482801839064</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.831323666666667</v>
+      </c>
+      <c r="N25">
+        <v>5.493971</v>
+      </c>
+      <c r="O25">
+        <v>0.08523226675463601</v>
+      </c>
+      <c r="P25">
+        <v>0.08523226675463602</v>
+      </c>
+      <c r="Q25">
+        <v>0.7669772752778889</v>
+      </c>
+      <c r="R25">
+        <v>6.902795477501001</v>
+      </c>
+      <c r="S25">
+        <v>0.00482796709193395</v>
+      </c>
+      <c r="T25">
+        <v>0.004827967091933952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4188103333333333</v>
+      </c>
+      <c r="H26">
+        <v>1.256431</v>
+      </c>
+      <c r="I26">
+        <v>0.05664482801839063</v>
+      </c>
+      <c r="J26">
+        <v>0.05664482801839064</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1177806666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.353342</v>
+      </c>
+      <c r="O26">
+        <v>0.005481670653088011</v>
+      </c>
+      <c r="P26">
+        <v>0.005481670653088012</v>
+      </c>
+      <c r="Q26">
+        <v>0.04932776026688888</v>
+      </c>
+      <c r="R26">
+        <v>0.443949842402</v>
+      </c>
+      <c r="S26">
+        <v>0.0003105082913976294</v>
+      </c>
+      <c r="T26">
+        <v>0.0003105082913976295</v>
       </c>
     </row>
   </sheetData>
